--- a/Excel_Data/village.xlsx
+++ b/Excel_Data/village.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Python Projects\Stable Marriage Problem\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew White\Documents\GitHub\Stable-Marriage-Problem\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F78285-50BC-4110-A433-235497227300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="1212" yWindow="3096" windowWidth="20112" windowHeight="10344" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -25,45 +26,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Preference</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>w5</t>
+  </si>
+  <si>
+    <t>w6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,89 +387,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -465,104 +548,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
